--- a/UT5_TA2/UT5_TA2_equipo1.xlsx
+++ b/UT5_TA2/UT5_TA2_equipo1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facum\OneDrive\Documents\AlgoritmosEstrucuraDeDatos\ProjectosJava\equipo01tas\UT5_TA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668C0E8-9234-41DA-9D9C-ABDB2A776A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AFA394-8505-416C-B820-42B4FF3606B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18990" yWindow="8160" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 claves" sheetId="2" r:id="rId1"/>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,11 +1201,11 @@
         <v>1</v>
       </c>
       <c r="K4" s="27">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L4" s="27">
         <f>K4+J4+D7</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4" s="80" t="s">
         <v>14</v>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="L6" s="75">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N6" s="38" t="s">
         <v>8</v>
@@ -1308,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:F8" si="2">C7+D2+D3</f>
+        <f t="shared" ref="D7:F7" si="2">C7+D2+D3</f>
         <v>13</v>
       </c>
       <c r="E7" s="5">
@@ -1331,14 +1331,14 @@
         <v>3</v>
       </c>
       <c r="P7" s="39">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="39">
         <v>22</v>
       </c>
       <c r="R7" s="43">
         <f>P7+Q7+F7</f>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1375,14 +1375,14 @@
         <v>4</v>
       </c>
       <c r="P8" s="39">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="39">
         <v>7</v>
       </c>
       <c r="R8" s="43">
         <f>P8+Q8+F7</f>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="R9" s="71">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1530,13 +1530,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E14" s="16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F14" s="17">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>8</v>
@@ -1759,14 +1759,14 @@
         <v>3</v>
       </c>
       <c r="J22" s="47">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K22" s="47">
         <v>3</v>
       </c>
       <c r="L22" s="37">
         <f>J22+K22+E7</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>9</v>
       </c>
       <c r="L23" s="79">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
